--- a/data/georgia_census/mcxeta-mtianeti/mcxeta/average_wages.xlsx
+++ b/data/georgia_census/mcxeta-mtianeti/mcxeta/average_wages.xlsx
@@ -1105,13 +1105,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8225CD87-68E8-40C1-9D5A-5F6AF41D664B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88A4D474-6BE9-4A7B-B4C7-F23878E185E9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2310FD20-7F9E-4841-9B61-296743785B80}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CD047A9-2DAF-4FB5-8BAA-23CC0F91E4BD}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E777C33-3FA7-454B-A81B-7891DF68C50D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C38E59E-517C-4DA8-BB5B-B227A7031086}"/>
 </file>